--- a/biology/Botanique/Rosa_phoenicia/Rosa_phoenicia.xlsx
+++ b/biology/Botanique/Rosa_phoenicia/Rosa_phoenicia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Rosier de Phénicie, Rosa phoenicia Boiss., est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier classé dans la section des Synstylae, originaire du Proche-Orient (Liban, Syrie, Israël, Turquie).
 Ce rosier est considéré comme l'un des parents possibles des rosiers de Damas par des croisements fertiles avec Rosa gallica qui seraient survenus en Anatolie.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses feuilles sont à cinq folioles dentées. Ses fleurs blanches simples, à cinq pétales, de 2 à 5 cm de diamètre, sont groupées en corymbes paniculés[1]. Ses fruits ellipsoïdes, orangés, mesurent de 10 à 15 mm de long[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses feuilles sont à cinq folioles dentées. Ses fleurs blanches simples, à cinq pétales, de 2 à 5 cm de diamètre, sont groupées en corymbes paniculés. Ses fruits ellipsoïdes, orangés, mesurent de 10 à 15 mm de long.
 Sarmenteux et peu rustique, il n'est très vigoureux qu'en sol sec et chaud.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>hybrides</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rosa × richardii, ou rose sainte, rose d'Abyssinie, rose de Saint-Jean, forme basse à fleurs simples blanches, groupées en corymbes paniculés, connu depuis des temps très anciens et serait un hybride spontané (Rosa gallica × Rosa phoenicia)</t>
         </is>
